--- a/Code/Results/Cases/Case_2_93/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_93/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9709361070383463</v>
+        <v>1.016392150120196</v>
       </c>
       <c r="D2">
-        <v>0.9947935750719951</v>
+        <v>1.022474799646343</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.946179667173201</v>
+        <v>1.014736051652402</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032481790789609</v>
+        <v>1.026577868333675</v>
       </c>
       <c r="J2">
-        <v>0.9940222797607264</v>
+        <v>1.021612221934027</v>
       </c>
       <c r="K2">
-        <v>1.006325923399754</v>
+        <v>1.025309072660218</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9584434663516535</v>
+        <v>1.017593311049693</v>
       </c>
       <c r="N2">
-        <v>1.001569179171898</v>
+        <v>1.011223809385837</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9779136782649087</v>
+        <v>1.017726981172331</v>
       </c>
       <c r="D3">
-        <v>0.9999027545444252</v>
+        <v>1.023458789068739</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9561270141283479</v>
+        <v>1.016720047224367</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034156670532407</v>
+        <v>1.026811579663227</v>
       </c>
       <c r="J3">
-        <v>0.9990250989102876</v>
+        <v>1.02258045626705</v>
       </c>
       <c r="K3">
-        <v>1.010536879795509</v>
+        <v>1.026099251644517</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9673538399099944</v>
+        <v>1.019379047084176</v>
       </c>
       <c r="N3">
-        <v>1.003289060855434</v>
+        <v>1.011551500582931</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9822794024453019</v>
+        <v>1.018588652532026</v>
       </c>
       <c r="D4">
-        <v>1.003101457149393</v>
+        <v>1.024093584111876</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.962336391856052</v>
+        <v>1.018001286891546</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035190623949844</v>
+        <v>1.026960671422299</v>
       </c>
       <c r="J4">
-        <v>1.002147528003063</v>
+        <v>1.023204530642104</v>
       </c>
       <c r="K4">
-        <v>1.013162593887843</v>
+        <v>1.026608036569209</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9729116925514283</v>
+        <v>1.02053163716861</v>
       </c>
       <c r="N4">
-        <v>1.004361856457919</v>
+        <v>1.011762519956938</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.984081185582223</v>
+        <v>1.018950415550297</v>
       </c>
       <c r="D5">
-        <v>1.004421953262782</v>
+        <v>1.024359999106261</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9648962271992879</v>
+        <v>1.018539329908409</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035613931764885</v>
+        <v>1.027022840140126</v>
       </c>
       <c r="J5">
-        <v>1.003434317470911</v>
+        <v>1.023466313982192</v>
       </c>
       <c r="K5">
-        <v>1.014244032079378</v>
+        <v>1.026821332647641</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9752018611203096</v>
+        <v>1.021015507418645</v>
       </c>
       <c r="N5">
-        <v>1.004803796827629</v>
+        <v>1.011850990580579</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9843818033891246</v>
+        <v>1.019011129024574</v>
       </c>
       <c r="D6">
-        <v>1.004642288435859</v>
+        <v>1.024404704941814</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9653231716370904</v>
+        <v>1.018629635597962</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035684355688051</v>
+        <v>1.027033248715232</v>
       </c>
       <c r="J6">
-        <v>1.0036489007343</v>
+        <v>1.023510234867411</v>
       </c>
       <c r="K6">
-        <v>1.014424331570535</v>
+        <v>1.026857111118439</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9755837641411966</v>
+        <v>1.021096712023836</v>
       </c>
       <c r="N6">
-        <v>1.00487748363886</v>
+        <v>1.011865831057976</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9823036071574001</v>
+        <v>1.018593488317643</v>
       </c>
       <c r="D7">
-        <v>1.003119195116775</v>
+        <v>1.024097145735476</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9623707905391894</v>
+        <v>1.018008478546043</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035196324173958</v>
+        <v>1.026961504123518</v>
       </c>
       <c r="J7">
-        <v>1.002164821854084</v>
+        <v>1.023208030865691</v>
       </c>
       <c r="K7">
-        <v>1.013177130553838</v>
+        <v>1.026610888982343</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9729424718223522</v>
+        <v>1.020538105313749</v>
       </c>
       <c r="N7">
-        <v>1.004367796631616</v>
+        <v>1.011763703053918</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9733264781168254</v>
+        <v>1.016843692576305</v>
       </c>
       <c r="D8">
-        <v>0.9965433741286767</v>
+        <v>1.022807742302091</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9495908957057307</v>
+        <v>1.015407088355146</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033058490430107</v>
+        <v>1.026657295281395</v>
       </c>
       <c r="J8">
-        <v>0.9957377682163326</v>
+        <v>1.021939949768448</v>
       </c>
       <c r="K8">
-        <v>1.007770372089805</v>
+        <v>1.025576640664084</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9614999417926592</v>
+        <v>1.018197419011811</v>
       </c>
       <c r="N8">
-        <v>1.002159058804106</v>
+        <v>1.011334766288359</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9562548699938811</v>
+        <v>1.013744239440717</v>
       </c>
       <c r="D9">
-        <v>0.9840609400737563</v>
+        <v>1.020520785121757</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9251343360470967</v>
+        <v>1.010802879310382</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028881522869098</v>
+        <v>1.026104811441196</v>
       </c>
       <c r="J9">
-        <v>0.9834529259746884</v>
+        <v>1.019686479882374</v>
       </c>
       <c r="K9">
-        <v>0.9974180216091006</v>
+        <v>1.023734698939421</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9395712763520742</v>
+        <v>1.014049905364543</v>
       </c>
       <c r="N9">
-        <v>0.9979328447943479</v>
+        <v>1.01057103351803</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9438534343706994</v>
+        <v>1.011666610473976</v>
       </c>
       <c r="D10">
-        <v>0.9750187725068172</v>
+        <v>1.018985840970813</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9072035691831732</v>
+        <v>1.007718700992413</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025775288547316</v>
+        <v>1.025725333837326</v>
       </c>
       <c r="J10">
-        <v>0.974486483336957</v>
+        <v>1.01817103555745</v>
       </c>
       <c r="K10">
-        <v>0.989854210687261</v>
+        <v>1.022493351258259</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9234780662579012</v>
+        <v>1.011268484857558</v>
       </c>
       <c r="N10">
-        <v>0.9948466300279567</v>
+        <v>1.01005644664783</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9381926498975643</v>
+        <v>1.010764173176352</v>
       </c>
       <c r="D11">
-        <v>0.9709000073469698</v>
+        <v>1.018318677980603</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.8989625448188847</v>
+        <v>1.006379482515291</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024341351925505</v>
+        <v>1.025558345156614</v>
       </c>
       <c r="J11">
-        <v>0.9703836020387787</v>
+        <v>1.017511628882506</v>
       </c>
       <c r="K11">
-        <v>0.9863923947742385</v>
+        <v>1.021952591070258</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9160794685051971</v>
+        <v>1.010059983366351</v>
       </c>
       <c r="N11">
-        <v>0.9934344160297607</v>
+        <v>1.009832308057868</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9360412564195867</v>
+        <v>1.01042853560276</v>
       </c>
       <c r="D12">
-        <v>0.9693362072961395</v>
+        <v>1.01807047881044</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.895820242694999</v>
+        <v>1.005881452527354</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023794064959</v>
+        <v>1.025495914415651</v>
       </c>
       <c r="J12">
-        <v>0.9688227745252667</v>
+        <v>1.017266206027127</v>
       </c>
       <c r="K12">
-        <v>0.9850754390231727</v>
+        <v>1.021751234655097</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9132582397820492</v>
+        <v>1.009610452592411</v>
       </c>
       <c r="N12">
-        <v>0.9928972106437823</v>
+        <v>1.009748852328655</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9365050327885979</v>
+        <v>1.010500550720009</v>
       </c>
       <c r="D13">
-        <v>0.9696732420489872</v>
+        <v>1.018123735903677</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.8964981263925531</v>
+        <v>1.005988308451405</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023912146572821</v>
+        <v>1.025509324326133</v>
       </c>
       <c r="J13">
-        <v>0.9691593112336662</v>
+        <v>1.017318872354307</v>
       </c>
       <c r="K13">
-        <v>0.9853593917571138</v>
+        <v>1.021794448740903</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9138668621542599</v>
+        <v>1.009706907721089</v>
       </c>
       <c r="N13">
-        <v>0.9930130377338829</v>
+        <v>1.009766762987414</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.938015841197433</v>
+        <v>1.010736438144252</v>
       </c>
       <c r="D14">
-        <v>0.9707714562208092</v>
+        <v>1.018298169652596</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.8987045199210283</v>
+        <v>1.006338327251715</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024296420377964</v>
+        <v>1.025553192860577</v>
       </c>
       <c r="J14">
-        <v>0.970255358870202</v>
+        <v>1.017491352190502</v>
       </c>
       <c r="K14">
-        <v>0.9862841883789336</v>
+        <v>1.021935956998458</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9158478097997022</v>
+        <v>1.010022838170727</v>
       </c>
       <c r="N14">
-        <v>0.9933902764442553</v>
+        <v>1.009825413689589</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9389400784305308</v>
+        <v>1.010881718603259</v>
       </c>
       <c r="D15">
-        <v>0.9714434994866274</v>
+        <v>1.018405592821326</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9000528719981795</v>
+        <v>1.006553907275334</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024531198975388</v>
+        <v>1.02558016815021</v>
       </c>
       <c r="J15">
-        <v>0.9709256663974171</v>
+        <v>1.01759755756755</v>
       </c>
       <c r="K15">
-        <v>0.9868497672730214</v>
+        <v>1.022023079266329</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9170583762437527</v>
+        <v>1.010217408024597</v>
       </c>
       <c r="N15">
-        <v>0.9936209888697953</v>
+        <v>1.009861523655898</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9442225836835998</v>
+        <v>1.011726442208004</v>
       </c>
       <c r="D16">
-        <v>0.9752875623799697</v>
+        <v>1.019030064715479</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9077396747200011</v>
+        <v>1.00780749970702</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025868474780235</v>
+        <v>1.025736359833827</v>
       </c>
       <c r="J16">
-        <v>0.9747538315434253</v>
+        <v>1.018214729935931</v>
       </c>
       <c r="K16">
-        <v>0.9900797796796607</v>
+        <v>1.022529170782805</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9239593394484815</v>
+        <v>1.011348600504121</v>
       </c>
       <c r="N16">
-        <v>0.9949386538851727</v>
+        <v>1.010071293983687</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.947454992516813</v>
+        <v>1.012255555619857</v>
       </c>
       <c r="D17">
-        <v>0.9776421837817656</v>
+        <v>1.019421099846687</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9124275120551155</v>
+        <v>1.008592826407948</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026682655644898</v>
+        <v>1.025833617725324</v>
       </c>
       <c r="J17">
-        <v>0.9770937045735816</v>
+        <v>1.018601001235489</v>
       </c>
       <c r="K17">
-        <v>0.9920539216195987</v>
+        <v>1.022845754733325</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9281674894762352</v>
+        <v>1.012057048893431</v>
       </c>
       <c r="N17">
-        <v>0.9957440626849757</v>
+        <v>1.010202522457996</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9493127165897158</v>
+        <v>1.012563908053096</v>
       </c>
       <c r="D18">
-        <v>0.9789962178106886</v>
+        <v>1.019648941107469</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9151165684878075</v>
+        <v>1.009050533926574</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027149072878162</v>
+        <v>1.025890088914216</v>
       </c>
       <c r="J18">
-        <v>0.9784375349042903</v>
+        <v>1.018825997625376</v>
       </c>
       <c r="K18">
-        <v>0.9931876281450777</v>
+        <v>1.023030099774288</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9305811758297055</v>
+        <v>1.01246987787098</v>
       </c>
       <c r="N18">
-        <v>0.9962066190144572</v>
+        <v>1.010278938705583</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9499415957193482</v>
+        <v>1.012669002688034</v>
       </c>
       <c r="D19">
-        <v>0.9794547143731297</v>
+        <v>1.019726588073484</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9160260493371581</v>
+        <v>1.009206539899408</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027306706634464</v>
+        <v>1.025909300487392</v>
       </c>
       <c r="J19">
-        <v>0.9788922912115007</v>
+        <v>1.018902663378409</v>
       </c>
       <c r="K19">
-        <v>0.9935712616972472</v>
+        <v>1.023092903754491</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9313974820330388</v>
+        <v>1.012610575130036</v>
       </c>
       <c r="N19">
-        <v>0.9963631478326104</v>
+        <v>1.01030497318773</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9471110828818475</v>
+        <v>1.012198814806111</v>
       </c>
       <c r="D20">
-        <v>0.9773915817933257</v>
+        <v>1.019379170648707</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.9119292984641296</v>
+        <v>1.008508605702822</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026596187641442</v>
+        <v>1.025823209544503</v>
       </c>
       <c r="J20">
-        <v>0.9768448531212838</v>
+        <v>1.018559590010456</v>
       </c>
       <c r="K20">
-        <v>0.9918439739912615</v>
+        <v>1.022811820691898</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>0.9277202767832614</v>
+        <v>1.011981080287058</v>
       </c>
       <c r="N20">
-        <v>0.9956584056075807</v>
+        <v>1.01018845604939</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9375723355679333</v>
+        <v>1.010666987188087</v>
       </c>
       <c r="D21">
-        <v>0.9704490252466603</v>
+        <v>1.018246813943035</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.8980571201734522</v>
+        <v>1.006235271750239</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024183677554761</v>
+        <v>1.025540285832892</v>
       </c>
       <c r="J21">
-        <v>0.9699336502130744</v>
+        <v>1.017440574762398</v>
       </c>
       <c r="K21">
-        <v>0.9860127439708783</v>
+        <v>1.021894300028788</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>0.9152665627363117</v>
+        <v>1.009929822337541</v>
       </c>
       <c r="N21">
-        <v>0.9932795492674323</v>
+        <v>1.009808148079539</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9312898638558036</v>
+        <v>1.009701360884009</v>
       </c>
       <c r="D22">
-        <v>0.965885682589902</v>
+        <v>1.017532624953318</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.8888590330048</v>
+        <v>1.004802543284303</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022581203649194</v>
+        <v>1.025360063605798</v>
       </c>
       <c r="J22">
-        <v>0.9653728284102563</v>
+        <v>1.01673416742502</v>
       </c>
       <c r="K22">
-        <v>0.9821646583595544</v>
+        <v>1.021314557208465</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.9070082713945447</v>
+        <v>1.008636405305711</v>
       </c>
       <c r="N22">
-        <v>0.991709911384524</v>
+        <v>1.009567871046707</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9346492607928992</v>
+        <v>1.010213498506879</v>
       </c>
       <c r="D23">
-        <v>0.9683248658920145</v>
+        <v>1.01791144365724</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.8937839478929035</v>
+        <v>1.005562388588955</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02343931867549</v>
+        <v>1.025455825073302</v>
       </c>
       <c r="J23">
-        <v>0.9678124566345516</v>
+        <v>1.017108918927053</v>
       </c>
       <c r="K23">
-        <v>0.9842229923583355</v>
+        <v>1.021622163061496</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.9114299934631168</v>
+        <v>1.00932242829356</v>
       </c>
       <c r="N23">
-        <v>0.9925494934657999</v>
+        <v>1.00969535746525</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9472665660297539</v>
+        <v>1.01222445437329</v>
       </c>
       <c r="D24">
-        <v>0.9775048776800684</v>
+        <v>1.019398117399222</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.9121545589707515</v>
+        <v>1.008546662527033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026635284922683</v>
+        <v>1.025827913349718</v>
       </c>
       <c r="J24">
-        <v>0.9769573629359486</v>
+        <v>1.018578302915774</v>
       </c>
       <c r="K24">
-        <v>0.9919388950007955</v>
+        <v>1.022827154991872</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>0.9279224785919707</v>
+        <v>1.01201540845658</v>
       </c>
       <c r="N24">
-        <v>0.9956971325896714</v>
+        <v>1.010194812446735</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.960833561993373</v>
+        <v>1.014547481142575</v>
       </c>
       <c r="D25">
-        <v>0.987405235763023</v>
+        <v>1.021113811709854</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>0.9317167762560843</v>
+        <v>1.011995687890799</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030014282427334</v>
+        <v>1.026249599812177</v>
       </c>
       <c r="J25">
-        <v>0.9867549554933286</v>
+        <v>1.020271341369031</v>
       </c>
       <c r="K25">
-        <v>1.00020226724501</v>
+        <v>1.024213222263916</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>0.9454764511894528</v>
+        <v>1.015124955898322</v>
       </c>
       <c r="N25">
-        <v>0.999069178312056</v>
+        <v>1.010769424784512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_93/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_93/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016392150120196</v>
+        <v>0.9709361070383467</v>
       </c>
       <c r="D2">
-        <v>1.022474799646343</v>
+        <v>0.9947935750719952</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.014736051652402</v>
+        <v>0.9461796671732008</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026577868333675</v>
+        <v>1.032481790789609</v>
       </c>
       <c r="J2">
-        <v>1.021612221934027</v>
+        <v>0.9940222797607267</v>
       </c>
       <c r="K2">
-        <v>1.025309072660218</v>
+        <v>1.006325923399754</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.017593311049693</v>
+        <v>0.9584434663516535</v>
       </c>
       <c r="N2">
-        <v>1.011223809385837</v>
+        <v>1.001569179171898</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017726981172331</v>
+        <v>0.9779136782649069</v>
       </c>
       <c r="D3">
-        <v>1.023458789068739</v>
+        <v>0.9999027545444238</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.016720047224367</v>
+        <v>0.956127014128346</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026811579663227</v>
+        <v>1.034156670532406</v>
       </c>
       <c r="J3">
-        <v>1.02258045626705</v>
+        <v>0.999025098910286</v>
       </c>
       <c r="K3">
-        <v>1.026099251644517</v>
+        <v>1.010536879795507</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.019379047084176</v>
+        <v>0.9673538399099925</v>
       </c>
       <c r="N3">
-        <v>1.011551500582931</v>
+        <v>1.003289060855434</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018588652532026</v>
+        <v>0.982279402445302</v>
       </c>
       <c r="D4">
-        <v>1.024093584111876</v>
+        <v>1.003101457149393</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.018001286891546</v>
+        <v>0.9623363918560525</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026960671422299</v>
+        <v>1.035190623949844</v>
       </c>
       <c r="J4">
-        <v>1.023204530642104</v>
+        <v>1.002147528003064</v>
       </c>
       <c r="K4">
-        <v>1.026608036569209</v>
+        <v>1.013162593887843</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.02053163716861</v>
+        <v>0.9729116925514285</v>
       </c>
       <c r="N4">
-        <v>1.011762519956938</v>
+        <v>1.004361856457919</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018950415550297</v>
+        <v>0.9840811855822235</v>
       </c>
       <c r="D5">
-        <v>1.024359999106261</v>
+        <v>1.004421953262783</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.018539329908409</v>
+        <v>0.964896227199289</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027022840140126</v>
+        <v>1.035613931764885</v>
       </c>
       <c r="J5">
-        <v>1.023466313982192</v>
+        <v>1.003434317470912</v>
       </c>
       <c r="K5">
-        <v>1.026821332647641</v>
+        <v>1.014244032079379</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.021015507418645</v>
+        <v>0.9752018611203106</v>
       </c>
       <c r="N5">
-        <v>1.011850990580579</v>
+        <v>1.004803796827629</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019011129024574</v>
+        <v>0.9843818033891238</v>
       </c>
       <c r="D6">
-        <v>1.024404704941814</v>
+        <v>1.004642288435858</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.018629635597962</v>
+        <v>0.9653231716370897</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027033248715232</v>
+        <v>1.03568435568805</v>
       </c>
       <c r="J6">
-        <v>1.023510234867411</v>
+        <v>1.003648900734299</v>
       </c>
       <c r="K6">
-        <v>1.026857111118439</v>
+        <v>1.014424331570535</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.021096712023836</v>
+        <v>0.9755837641411961</v>
       </c>
       <c r="N6">
-        <v>1.011865831057976</v>
+        <v>1.004877483638859</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018593488317643</v>
+        <v>0.9823036071573997</v>
       </c>
       <c r="D7">
-        <v>1.024097145735476</v>
+        <v>1.003119195116775</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.018008478546043</v>
+        <v>0.9623707905391891</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026961504123518</v>
+        <v>1.035196324173958</v>
       </c>
       <c r="J7">
-        <v>1.023208030865691</v>
+        <v>1.002164821854084</v>
       </c>
       <c r="K7">
-        <v>1.026610888982343</v>
+        <v>1.013177130553838</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.020538105313749</v>
+        <v>0.9729424718223519</v>
       </c>
       <c r="N7">
-        <v>1.011763703053918</v>
+        <v>1.004367796631616</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016843692576305</v>
+        <v>0.9733264781168258</v>
       </c>
       <c r="D8">
-        <v>1.022807742302091</v>
+        <v>0.996543374128677</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.015407088355146</v>
+        <v>0.949590895705731</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026657295281395</v>
+        <v>1.033058490430107</v>
       </c>
       <c r="J8">
-        <v>1.021939949768448</v>
+        <v>0.9957377682163331</v>
       </c>
       <c r="K8">
-        <v>1.025576640664084</v>
+        <v>1.007770372089805</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.018197419011811</v>
+        <v>0.9614999417926593</v>
       </c>
       <c r="N8">
-        <v>1.011334766288359</v>
+        <v>1.002159058804107</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013744239440717</v>
+        <v>0.9562548699938823</v>
       </c>
       <c r="D9">
-        <v>1.020520785121757</v>
+        <v>0.9840609400737573</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.010802879310382</v>
+        <v>0.9251343360470977</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026104811441196</v>
+        <v>1.028881522869098</v>
       </c>
       <c r="J9">
-        <v>1.019686479882374</v>
+        <v>0.9834529259746894</v>
       </c>
       <c r="K9">
-        <v>1.023734698939421</v>
+        <v>0.9974180216091016</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.014049905364543</v>
+        <v>0.9395712763520755</v>
       </c>
       <c r="N9">
-        <v>1.01057103351803</v>
+        <v>0.9979328447943482</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011666610473976</v>
+        <v>0.9438534343707001</v>
       </c>
       <c r="D10">
-        <v>1.018985840970813</v>
+        <v>0.9750187725068178</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.007718700992413</v>
+        <v>0.9072035691831738</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025725333837326</v>
+        <v>1.025775288547316</v>
       </c>
       <c r="J10">
-        <v>1.01817103555745</v>
+        <v>0.9744864833369576</v>
       </c>
       <c r="K10">
-        <v>1.022493351258259</v>
+        <v>0.9898542106872615</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.011268484857558</v>
+        <v>0.9234780662579019</v>
       </c>
       <c r="N10">
-        <v>1.01005644664783</v>
+        <v>0.9948466300279569</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010764173176352</v>
+        <v>0.9381926498975632</v>
       </c>
       <c r="D11">
-        <v>1.018318677980603</v>
+        <v>0.9709000073469686</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.006379482515291</v>
+        <v>0.8989625448188838</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025558345156614</v>
+        <v>1.024341351925504</v>
       </c>
       <c r="J11">
-        <v>1.017511628882506</v>
+        <v>0.9703836020387776</v>
       </c>
       <c r="K11">
-        <v>1.021952591070258</v>
+        <v>0.9863923947742373</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.010059983366351</v>
+        <v>0.9160794685051961</v>
       </c>
       <c r="N11">
-        <v>1.009832308057868</v>
+        <v>0.9934344160297602</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01042853560276</v>
+        <v>0.9360412564195859</v>
       </c>
       <c r="D12">
-        <v>1.01807047881044</v>
+        <v>0.9693362072961385</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.005881452527354</v>
+        <v>0.895820242694998</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025495914415651</v>
+        <v>1.023794064959</v>
       </c>
       <c r="J12">
-        <v>1.017266206027127</v>
+        <v>0.968822774525266</v>
       </c>
       <c r="K12">
-        <v>1.021751234655097</v>
+        <v>0.985075439023172</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.009610452592411</v>
+        <v>0.9132582397820483</v>
       </c>
       <c r="N12">
-        <v>1.009748852328655</v>
+        <v>0.9928972106437823</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010500550720009</v>
+        <v>0.9365050327885974</v>
       </c>
       <c r="D13">
-        <v>1.018123735903677</v>
+        <v>0.9696732420489871</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.005988308451405</v>
+        <v>0.8964981263925531</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025509324326133</v>
+        <v>1.023912146572821</v>
       </c>
       <c r="J13">
-        <v>1.017318872354307</v>
+        <v>0.9691593112336661</v>
       </c>
       <c r="K13">
-        <v>1.021794448740903</v>
+        <v>0.9853593917571138</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.009706907721089</v>
+        <v>0.9138668621542599</v>
       </c>
       <c r="N13">
-        <v>1.009766762987414</v>
+        <v>0.9930130377338829</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010736438144252</v>
+        <v>0.9380158411974323</v>
       </c>
       <c r="D14">
-        <v>1.018298169652596</v>
+        <v>0.9707714562208087</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.006338327251715</v>
+        <v>0.8987045199210278</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025553192860577</v>
+        <v>1.024296420377964</v>
       </c>
       <c r="J14">
-        <v>1.017491352190502</v>
+        <v>0.9702553588702015</v>
       </c>
       <c r="K14">
-        <v>1.021935956998458</v>
+        <v>0.9862841883789332</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.010022838170727</v>
+        <v>0.9158478097997015</v>
       </c>
       <c r="N14">
-        <v>1.009825413689589</v>
+        <v>0.9933902764442551</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010881718603259</v>
+        <v>0.9389400784305308</v>
       </c>
       <c r="D15">
-        <v>1.018405592821326</v>
+        <v>0.9714434994866271</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.006553907275334</v>
+        <v>0.9000528719981793</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02558016815021</v>
+        <v>1.024531198975388</v>
       </c>
       <c r="J15">
-        <v>1.01759755756755</v>
+        <v>0.9709256663974168</v>
       </c>
       <c r="K15">
-        <v>1.022023079266329</v>
+        <v>0.9868497672730213</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.010217408024597</v>
+        <v>0.9170583762437527</v>
       </c>
       <c r="N15">
-        <v>1.009861523655898</v>
+        <v>0.9936209888697953</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011726442208004</v>
+        <v>0.9442225836835996</v>
       </c>
       <c r="D16">
-        <v>1.019030064715479</v>
+        <v>0.9752875623799696</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.00780749970702</v>
+        <v>0.9077396747200005</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025736359833827</v>
+        <v>1.025868474780235</v>
       </c>
       <c r="J16">
-        <v>1.018214729935931</v>
+        <v>0.9747538315434251</v>
       </c>
       <c r="K16">
-        <v>1.022529170782805</v>
+        <v>0.9900797796796605</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.011348600504121</v>
+        <v>0.9239593394484811</v>
       </c>
       <c r="N16">
-        <v>1.010071293983687</v>
+        <v>0.9949386538851726</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012255555619857</v>
+        <v>0.9474549925168129</v>
       </c>
       <c r="D17">
-        <v>1.019421099846687</v>
+        <v>0.9776421837817654</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.008592826407948</v>
+        <v>0.9124275120551156</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025833617725324</v>
+        <v>1.026682655644898</v>
       </c>
       <c r="J17">
-        <v>1.018601001235489</v>
+        <v>0.9770937045735817</v>
       </c>
       <c r="K17">
-        <v>1.022845754733325</v>
+        <v>0.9920539216195985</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.012057048893431</v>
+        <v>0.9281674894762353</v>
       </c>
       <c r="N17">
-        <v>1.010202522457996</v>
+        <v>0.9957440626849758</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012563908053096</v>
+        <v>0.9493127165897144</v>
       </c>
       <c r="D18">
-        <v>1.019648941107469</v>
+        <v>0.9789962178106874</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.009050533926574</v>
+        <v>0.9151165684878056</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025890088914216</v>
+        <v>1.027149072878161</v>
       </c>
       <c r="J18">
-        <v>1.018825997625376</v>
+        <v>0.9784375349042886</v>
       </c>
       <c r="K18">
-        <v>1.023030099774288</v>
+        <v>0.9931876281450766</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.01246987787098</v>
+        <v>0.9305811758297038</v>
       </c>
       <c r="N18">
-        <v>1.010278938705583</v>
+        <v>0.9962066190144566</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012669002688034</v>
+        <v>0.9499415957193484</v>
       </c>
       <c r="D19">
-        <v>1.019726588073484</v>
+        <v>0.9794547143731303</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.009206539899408</v>
+        <v>0.9160260493371581</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025909300487392</v>
+        <v>1.027306706634464</v>
       </c>
       <c r="J19">
-        <v>1.018902663378409</v>
+        <v>0.978892291211501</v>
       </c>
       <c r="K19">
-        <v>1.023092903754491</v>
+        <v>0.9935712616972476</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.012610575130036</v>
+        <v>0.9313974820330388</v>
       </c>
       <c r="N19">
-        <v>1.01030497318773</v>
+        <v>0.9963631478326105</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012198814806111</v>
+        <v>0.9471110828818501</v>
       </c>
       <c r="D20">
-        <v>1.019379170648707</v>
+        <v>0.9773915817933279</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.008508605702822</v>
+        <v>0.9119292984641322</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025823209544503</v>
+        <v>1.026596187641443</v>
       </c>
       <c r="J20">
-        <v>1.018559590010456</v>
+        <v>0.9768448531212859</v>
       </c>
       <c r="K20">
-        <v>1.022811820691898</v>
+        <v>0.9918439739912637</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.011981080287058</v>
+        <v>0.927720276783264</v>
       </c>
       <c r="N20">
-        <v>1.01018845604939</v>
+        <v>0.9956584056075815</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010666987188087</v>
+        <v>0.9375723355679334</v>
       </c>
       <c r="D21">
-        <v>1.018246813943035</v>
+        <v>0.9704490252466607</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.006235271750239</v>
+        <v>0.8980571201734526</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025540285832892</v>
+        <v>1.024183677554761</v>
       </c>
       <c r="J21">
-        <v>1.017440574762398</v>
+        <v>0.9699336502130744</v>
       </c>
       <c r="K21">
-        <v>1.021894300028788</v>
+        <v>0.9860127439708786</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.009929822337541</v>
+        <v>0.9152665627363122</v>
       </c>
       <c r="N21">
-        <v>1.009808148079539</v>
+        <v>0.9932795492674323</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.009701360884009</v>
+        <v>0.9312898638558047</v>
       </c>
       <c r="D22">
-        <v>1.017532624953318</v>
+        <v>0.9658856825899031</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.004802543284303</v>
+        <v>0.8888590330048013</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025360063605798</v>
+        <v>1.022581203649194</v>
       </c>
       <c r="J22">
-        <v>1.01673416742502</v>
+        <v>0.9653728284102573</v>
       </c>
       <c r="K22">
-        <v>1.021314557208465</v>
+        <v>0.9821646583595554</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.008636405305711</v>
+        <v>0.9070082713945459</v>
       </c>
       <c r="N22">
-        <v>1.009567871046707</v>
+        <v>0.9917099113845244</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010213498506879</v>
+        <v>0.9346492607928988</v>
       </c>
       <c r="D23">
-        <v>1.01791144365724</v>
+        <v>0.9683248658920139</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.005562388588955</v>
+        <v>0.8937839478929028</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025455825073302</v>
+        <v>1.02343931867549</v>
       </c>
       <c r="J23">
-        <v>1.017108918927053</v>
+        <v>0.9678124566345508</v>
       </c>
       <c r="K23">
-        <v>1.021622163061496</v>
+        <v>0.9842229923583349</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.00932242829356</v>
+        <v>0.911429993463116</v>
       </c>
       <c r="N23">
-        <v>1.00969535746525</v>
+        <v>0.9925494934657998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01222445437329</v>
+        <v>0.9472665660297532</v>
       </c>
       <c r="D24">
-        <v>1.019398117399222</v>
+        <v>0.9775048776800683</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.938164042401182</v>
       </c>
       <c r="F24">
-        <v>1.008546662527033</v>
+        <v>0.9121545589707512</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025827913349718</v>
+        <v>1.026635284922683</v>
       </c>
       <c r="J24">
-        <v>1.018578302915774</v>
+        <v>0.9769573629359483</v>
       </c>
       <c r="K24">
-        <v>1.022827154991872</v>
+        <v>0.9919388950007952</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.01201540845658</v>
+        <v>0.9279224785919703</v>
       </c>
       <c r="N24">
-        <v>1.010194812446735</v>
+        <v>0.9956971325896713</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014547481142575</v>
+        <v>0.9608335619933736</v>
       </c>
       <c r="D25">
-        <v>1.021113811709854</v>
+        <v>0.9874052357630233</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801718021</v>
       </c>
       <c r="F25">
-        <v>1.011995687890799</v>
+        <v>0.9317167762560851</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026249599812177</v>
+        <v>1.030014282427334</v>
       </c>
       <c r="J25">
-        <v>1.020271341369031</v>
+        <v>0.9867549554933291</v>
       </c>
       <c r="K25">
-        <v>1.024213222263916</v>
+        <v>1.00020226724501</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005834</v>
       </c>
       <c r="M25">
-        <v>1.015124955898322</v>
+        <v>0.9454764511894534</v>
       </c>
       <c r="N25">
-        <v>1.010769424784512</v>
+        <v>0.9990691783120563</v>
       </c>
     </row>
   </sheetData>
